--- a/1. Import data customer.xlsx
+++ b/1. Import data customer.xlsx
@@ -220,18 +220,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -281,40 +275,43 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="1" style="0" width="30.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="30.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="49.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="0" width="30.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="8.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -358,7 +355,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -391,7 +388,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
